--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Pomc</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9347220000000002</v>
+        <v>0.5131323333333334</v>
       </c>
       <c r="H2">
-        <v>2.804166</v>
+        <v>1.539397</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9119558630037493</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9119558630037494</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8414576666666665</v>
+        <v>0.6201396666666666</v>
       </c>
       <c r="N2">
-        <v>2.524373</v>
+        <v>1.860419</v>
       </c>
       <c r="O2">
-        <v>0.2686458884948007</v>
+        <v>0.1891028895630684</v>
       </c>
       <c r="P2">
-        <v>0.2686458884948007</v>
+        <v>0.1891028895630684</v>
       </c>
       <c r="Q2">
-        <v>0.786528993102</v>
+        <v>0.3182137141492223</v>
       </c>
       <c r="R2">
-        <v>7.078760937918</v>
+        <v>2.863923427343</v>
       </c>
       <c r="S2">
-        <v>0.2686458884948007</v>
+        <v>0.1724534888479908</v>
       </c>
       <c r="T2">
-        <v>0.2686458884948007</v>
+        <v>0.1724534888479908</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9347220000000002</v>
+        <v>0.5131323333333334</v>
       </c>
       <c r="H3">
-        <v>2.804166</v>
+        <v>1.539397</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9119558630037493</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9119558630037494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.056176</v>
       </c>
       <c r="O3">
-        <v>0.3252408090708014</v>
+        <v>0.3106459956672665</v>
       </c>
       <c r="P3">
-        <v>0.3252408090708013</v>
+        <v>0.3106459956672664</v>
       </c>
       <c r="Q3">
-        <v>0.9522249810240001</v>
+        <v>0.5227409073191112</v>
       </c>
       <c r="R3">
-        <v>8.570024829216001</v>
+        <v>4.704668165872</v>
       </c>
       <c r="S3">
-        <v>0.3252408090708014</v>
+        <v>0.283295437067401</v>
       </c>
       <c r="T3">
-        <v>0.3252408090708013</v>
+        <v>0.283295437067401</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9347220000000002</v>
+        <v>0.5131323333333334</v>
       </c>
       <c r="H4">
-        <v>2.804166</v>
+        <v>1.539397</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9119558630037493</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9119558630037494</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5041323333333333</v>
+        <v>0.5912873333333333</v>
       </c>
       <c r="N4">
-        <v>1.512397</v>
+        <v>1.773862</v>
       </c>
       <c r="O4">
-        <v>0.1609505551762244</v>
+        <v>0.1803047753684109</v>
       </c>
       <c r="P4">
-        <v>0.1609505551762244</v>
+        <v>0.1803047753684109</v>
       </c>
       <c r="Q4">
-        <v>0.471223582878</v>
+        <v>0.3034086490237778</v>
       </c>
       <c r="R4">
-        <v>4.241012245902001</v>
+        <v>2.730677841214</v>
       </c>
       <c r="S4">
-        <v>0.1609505551762244</v>
+        <v>0.1644299970247963</v>
       </c>
       <c r="T4">
-        <v>0.1609505551762244</v>
+        <v>0.1644299970247964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9347220000000002</v>
+        <v>0.5131323333333334</v>
       </c>
       <c r="H5">
-        <v>2.804166</v>
+        <v>1.539397</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9119558630037493</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9119558630037494</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3504206666666667</v>
+        <v>0.4518883333333334</v>
       </c>
       <c r="N5">
-        <v>1.051262</v>
+        <v>1.355665</v>
       </c>
       <c r="O5">
-        <v>0.1118761823355032</v>
+        <v>0.1377970063622857</v>
       </c>
       <c r="P5">
-        <v>0.1118761823355032</v>
+        <v>0.1377970063622857</v>
       </c>
       <c r="Q5">
-        <v>0.3275459063880001</v>
+        <v>0.2318785148894445</v>
       </c>
       <c r="R5">
-        <v>2.947913157492</v>
+        <v>2.086906634005</v>
       </c>
       <c r="S5">
-        <v>0.1118761823355032</v>
+        <v>0.1256647878564514</v>
       </c>
       <c r="T5">
-        <v>0.1118761823355032</v>
+        <v>0.1256647878564514</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9347220000000002</v>
+        <v>0.5131323333333334</v>
       </c>
       <c r="H6">
-        <v>2.804166</v>
+        <v>1.539397</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.9119558630037493</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9119558630037494</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4174826666666667</v>
+        <v>0.5973363333333334</v>
       </c>
       <c r="N6">
-        <v>1.252448</v>
+        <v>1.792009</v>
       </c>
       <c r="O6">
-        <v>0.1332865649226704</v>
+        <v>0.1821493330389685</v>
       </c>
       <c r="P6">
-        <v>0.1332865649226704</v>
+        <v>0.1821493330389685</v>
       </c>
       <c r="Q6">
-        <v>0.3902302331520001</v>
+        <v>0.3065125865081112</v>
       </c>
       <c r="R6">
-        <v>3.512072098368001</v>
+        <v>2.758613278573</v>
       </c>
       <c r="S6">
-        <v>0.1332865649226704</v>
+        <v>0.1661121522071099</v>
       </c>
       <c r="T6">
-        <v>0.1332865649226704</v>
+        <v>0.1661121522071098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04954</v>
+      </c>
+      <c r="H7">
+        <v>0.14862</v>
+      </c>
+      <c r="I7">
+        <v>0.08804413699625062</v>
+      </c>
+      <c r="J7">
+        <v>0.08804413699625063</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6201396666666666</v>
+      </c>
+      <c r="N7">
+        <v>1.860419</v>
+      </c>
+      <c r="O7">
+        <v>0.1891028895630684</v>
+      </c>
+      <c r="P7">
+        <v>0.1891028895630684</v>
+      </c>
+      <c r="Q7">
+        <v>0.03072171908666666</v>
+      </c>
+      <c r="R7">
+        <v>0.27649547178</v>
+      </c>
+      <c r="S7">
+        <v>0.01664940071507765</v>
+      </c>
+      <c r="T7">
+        <v>0.01664940071507765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04954</v>
+      </c>
+      <c r="H8">
+        <v>0.14862</v>
+      </c>
+      <c r="I8">
+        <v>0.08804413699625062</v>
+      </c>
+      <c r="J8">
+        <v>0.08804413699625063</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.018725333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.056176</v>
+      </c>
+      <c r="O8">
+        <v>0.3106459956672665</v>
+      </c>
+      <c r="P8">
+        <v>0.3106459956672664</v>
+      </c>
+      <c r="Q8">
+        <v>0.05046765301333333</v>
+      </c>
+      <c r="R8">
+        <v>0.45420887712</v>
+      </c>
+      <c r="S8">
+        <v>0.02735055859986548</v>
+      </c>
+      <c r="T8">
+        <v>0.02735055859986548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04954</v>
+      </c>
+      <c r="H9">
+        <v>0.14862</v>
+      </c>
+      <c r="I9">
+        <v>0.08804413699625062</v>
+      </c>
+      <c r="J9">
+        <v>0.08804413699625063</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5912873333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.773862</v>
+      </c>
+      <c r="O9">
+        <v>0.1803047753684109</v>
+      </c>
+      <c r="P9">
+        <v>0.1803047753684109</v>
+      </c>
+      <c r="Q9">
+        <v>0.02929237449333333</v>
+      </c>
+      <c r="R9">
+        <v>0.26363137044</v>
+      </c>
+      <c r="S9">
+        <v>0.01587477834361456</v>
+      </c>
+      <c r="T9">
+        <v>0.01587477834361457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04954</v>
+      </c>
+      <c r="H10">
+        <v>0.14862</v>
+      </c>
+      <c r="I10">
+        <v>0.08804413699625062</v>
+      </c>
+      <c r="J10">
+        <v>0.08804413699625063</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4518883333333334</v>
+      </c>
+      <c r="N10">
+        <v>1.355665</v>
+      </c>
+      <c r="O10">
+        <v>0.1377970063622857</v>
+      </c>
+      <c r="P10">
+        <v>0.1377970063622857</v>
+      </c>
+      <c r="Q10">
+        <v>0.02238654803333334</v>
+      </c>
+      <c r="R10">
+        <v>0.2014789323</v>
+      </c>
+      <c r="S10">
+        <v>0.0121322185058343</v>
+      </c>
+      <c r="T10">
+        <v>0.0121322185058343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04954</v>
+      </c>
+      <c r="H11">
+        <v>0.14862</v>
+      </c>
+      <c r="I11">
+        <v>0.08804413699625062</v>
+      </c>
+      <c r="J11">
+        <v>0.08804413699625063</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5973363333333334</v>
+      </c>
+      <c r="N11">
+        <v>1.792009</v>
+      </c>
+      <c r="O11">
+        <v>0.1821493330389685</v>
+      </c>
+      <c r="P11">
+        <v>0.1821493330389685</v>
+      </c>
+      <c r="Q11">
+        <v>0.02959204195333334</v>
+      </c>
+      <c r="R11">
+        <v>0.26632837758</v>
+      </c>
+      <c r="S11">
+        <v>0.01603718083185862</v>
+      </c>
+      <c r="T11">
+        <v>0.01603718083185862</v>
       </c>
     </row>
   </sheetData>
